--- a/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ce_calibrated.xlsx
+++ b/ref/ingestion/calibrated/honduras/model_input_variables_honduras_ce_calibrated.xlsx
@@ -611,112 +611,112 @@
         <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2883147405</v>
+        <v>0.288314741</v>
       </c>
     </row>
     <row r="3">
@@ -873,112 +873,112 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="K4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="L4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="M4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="N4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="O4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="P4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="R4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="S4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="T4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="U4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="V4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="W4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="X4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.166123432786</v>
+        <v>0.166123433</v>
       </c>
     </row>
     <row r="5">
@@ -1004,112 +1004,112 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="K5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="L5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="M5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="N5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="O5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="P5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="R5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="S5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="T5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="U5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="V5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="W5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="X5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.146184115095</v>
+        <v>0.146184115</v>
       </c>
     </row>
     <row r="6">
@@ -5065,112 +5065,112 @@
         <v>0.8</v>
       </c>
       <c r="J36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="K36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="L36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="M36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="N36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="O36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="P36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="R36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="S36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="T36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="U36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="V36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="W36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="X36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.29800922387</v>
+        <v>0.298009224</v>
       </c>
     </row>
     <row r="37">
@@ -5327,112 +5327,112 @@
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="K38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="L38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="N38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="O38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="P38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="R38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="S38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="T38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="U38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="V38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="W38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="X38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AB38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AG38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AH38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AI38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AK38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AL38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AM38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AO38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.1085545031</v>
+        <v>1.108554503</v>
       </c>
     </row>
     <row r="39">
@@ -5720,112 +5720,112 @@
         <v>0.78</v>
       </c>
       <c r="J41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="K41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="L41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="M41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="N41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="O41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="P41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="R41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="S41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="T41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="U41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="V41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="W41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="X41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.040535276895</v>
+        <v>0.040535277</v>
       </c>
     </row>
     <row r="42">
@@ -6244,112 +6244,112 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="K45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="L45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="M45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="N45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="P45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="S45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="T45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="U45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="V45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="W45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="X45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AB45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AD45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AF45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AG45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AI45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AK45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AL45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AM45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AN45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AO45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AR45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.2507399925</v>
+        <v>1.250739993</v>
       </c>
     </row>
     <row r="46">
@@ -6375,112 +6375,112 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="L46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="M46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="N46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="O46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="P46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="S46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="T46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="V46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="X46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.07838649061109999</v>
+        <v>0.078386491</v>
       </c>
     </row>
     <row r="47">
@@ -6506,112 +6506,112 @@
         <v>0.8</v>
       </c>
       <c r="J47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="K47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="L47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="M47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="N47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="O47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="P47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="Q47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="R47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="S47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="T47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="U47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="V47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="W47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="X47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="Y47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="Z47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AA47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AB47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AC47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AD47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AE47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AF47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AG47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AH47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AI47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AJ47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AK47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AL47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AM47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AN47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AO47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AP47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AQ47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AR47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
       <c r="AS47" t="n">
-        <v>51.519380276</v>
+        <v>51.51938028</v>
       </c>
     </row>
     <row r="48">
@@ -6637,112 +6637,112 @@
         <v>0.8</v>
       </c>
       <c r="J48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="K48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="L48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="M48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="N48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="O48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="P48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="Q48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="R48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="S48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="T48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="U48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="V48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="W48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="X48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="Y48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="Z48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AA48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AB48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AC48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AD48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AE48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AF48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AG48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AH48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AI48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AJ48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AK48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AL48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AM48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AN48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AO48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AP48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AQ48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AR48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
       <c r="AS48" t="n">
-        <v>43.900535847</v>
+        <v>43.90053585</v>
       </c>
     </row>
     <row r="49">
@@ -6899,112 +6899,112 @@
         <v>0.57</v>
       </c>
       <c r="J50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="K50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="L50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="M50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="N50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="O50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="P50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="R50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="S50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="T50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="U50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="V50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="W50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="X50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AR50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.000806362571</v>
+        <v>0.000806363</v>
       </c>
     </row>
     <row r="51">
@@ -7161,112 +7161,112 @@
         <v>0.57</v>
       </c>
       <c r="J52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="K52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="L52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="M52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="N52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="O52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="P52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="R52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="S52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="T52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="U52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="V52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="W52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="X52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AR52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.001748720365</v>
+        <v>0.00174872</v>
       </c>
     </row>
     <row r="53">
@@ -7292,112 +7292,112 @@
         <v>0.57</v>
       </c>
       <c r="J53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="K53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="L53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="M53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="N53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="O53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="P53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="R53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="S53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="T53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="U53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="V53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="W53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="X53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AK53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AL53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AM53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AR53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.005090790047</v>
+        <v>0.00509079</v>
       </c>
     </row>
     <row r="54">
@@ -7554,112 +7554,112 @@
         <v>0.57</v>
       </c>
       <c r="J55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="L55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="M55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="N55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="O55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="P55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="R55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="S55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="T55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="U55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="V55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="W55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="X55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AM55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AR55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.008408481354</v>
+        <v>0.008408481000000001</v>
       </c>
     </row>
     <row r="56">
@@ -7685,112 +7685,112 @@
         <v>0.57</v>
       </c>
       <c r="J56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="K56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="L56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="M56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="N56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="O56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="P56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="R56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="S56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="T56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="U56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="V56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="W56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="X56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AM56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AN56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AO56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AR56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.00043167037662</v>
+        <v>0.00043167</v>
       </c>
     </row>
     <row r="57">
@@ -7947,112 +7947,112 @@
         <v>0.57</v>
       </c>
       <c r="J58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="K58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="L58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="M58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="N58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="O58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="P58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="R58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="S58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="T58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="U58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="V58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="W58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="X58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AI58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AK58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AL58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AM58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AR58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.00048599035296</v>
+        <v>0.00048599</v>
       </c>
     </row>
     <row r="59">
@@ -8078,112 +8078,112 @@
         <v>0.2</v>
       </c>
       <c r="J59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="L59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="M59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="N59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="O59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="P59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="R59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="S59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="T59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="U59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="V59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="W59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="X59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AE59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AK59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AL59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AM59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AN59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AO59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AR59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.001790302649</v>
+        <v>0.001790303</v>
       </c>
     </row>
     <row r="60">
@@ -8209,112 +8209,112 @@
         <v>0.2</v>
       </c>
       <c r="J60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="K60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="L60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="M60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="N60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="O60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="P60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="R60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="S60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="T60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="U60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="V60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="W60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="X60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AH60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AI60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AK60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AL60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AM60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AR60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.000241600679</v>
+        <v>0.000241601</v>
       </c>
     </row>
     <row r="61">
@@ -8340,112 +8340,112 @@
         <v>0.8</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="R61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="S61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="T61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="U61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="V61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="X61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AI61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AL61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AM61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AO61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AR61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.0001063835291</v>
+        <v>0.000106384</v>
       </c>
     </row>
     <row r="62">
@@ -8471,112 +8471,112 @@
         <v>0.8</v>
       </c>
       <c r="J62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="K62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="L62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="M62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="N62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="O62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="P62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="Q62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="R62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="S62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="T62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="U62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="V62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="W62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="X62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="Y62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="Z62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AB62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AC62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AD62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AE62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AF62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AG62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AH62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AI62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AJ62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AK62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AL62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AM62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AN62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AO62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AP62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AQ62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AR62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="AS62" t="n">
-        <v>7.07111203152e-05</v>
+        <v>7.07e-05</v>
       </c>
     </row>
     <row r="63">
@@ -8602,112 +8602,112 @@
         <v>0.8</v>
       </c>
       <c r="J63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="K63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="L63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="M63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="N63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="O63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="P63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="Q63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="R63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="S63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="T63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="U63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="V63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="W63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="X63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="Y63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="Z63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AA63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AD63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AE63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AF63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AG63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AH63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AI63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AJ63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AK63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AL63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AM63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AN63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AO63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AP63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AQ63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AR63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
       <c r="AS63" t="n">
-        <v>9.38249923881e-05</v>
+        <v>9.38e-05</v>
       </c>
     </row>
     <row r="64">
@@ -8733,112 +8733,112 @@
         <v>0.8</v>
       </c>
       <c r="J64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="K64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="L64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="M64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="N64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="O64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="P64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="Q64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="R64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="S64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="T64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="U64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="V64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="W64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="X64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="Y64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="Z64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AA64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AB64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AD64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AE64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AF64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AG64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AH64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AI64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AJ64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AK64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AL64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AM64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AN64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AO64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AP64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AQ64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AR64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
       <c r="AS64" t="n">
-        <v>7.664232653129999e-05</v>
+        <v>7.660000000000001e-05</v>
       </c>
     </row>
     <row r="65">
@@ -8864,112 +8864,112 @@
         <v>0.8</v>
       </c>
       <c r="J65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="K65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="L65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="M65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="N65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="O65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="P65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="Q65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="R65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="S65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="T65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="U65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="V65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="W65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="X65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="Y65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="Z65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AA65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AB65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AD65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AE65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AF65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AG65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AH65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AI65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AJ65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AK65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AL65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AM65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AN65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AO65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AP65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AQ65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AR65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
       <c r="AS65" t="n">
-        <v>8.24406759216e-05</v>
+        <v>8.24e-05</v>
       </c>
     </row>
     <row r="66">
@@ -8995,112 +8995,112 @@
         <v>0.8</v>
       </c>
       <c r="J66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="K66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="L66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="M66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="N66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="O66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="P66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="Q66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="R66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="S66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="T66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="U66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="V66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="W66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="X66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="Y66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="Z66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AA66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AB66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AC66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AD66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AE66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AF66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AG66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AH66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AI66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AJ66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AK66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AL66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AM66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AN66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AO66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AP66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AQ66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AR66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
       <c r="AS66" t="n">
-        <v>9.2628187062e-05</v>
+        <v>9.26e-05</v>
       </c>
     </row>
     <row r="67">
@@ -9126,112 +9126,112 @@
         <v>0.8</v>
       </c>
       <c r="J67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="K67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="L67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="M67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="N67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="O67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="P67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="Q67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="R67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="S67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="T67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="U67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="V67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="W67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="X67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="Y67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="Z67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AA67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AB67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AC67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AD67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AE67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AF67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AG67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AH67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AI67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AJ67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AK67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AL67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AM67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AN67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AO67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AP67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AQ67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AR67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
       <c r="AS67" t="n">
-        <v>8.35675944e-06</v>
+        <v>8.36e-06</v>
       </c>
     </row>
     <row r="68">
@@ -9257,112 +9257,112 @@
         <v>0.8</v>
       </c>
       <c r="J68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="K68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="L68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="M68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="N68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="O68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="P68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="R68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="S68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="T68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="U68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="V68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="W68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="X68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AE68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AH68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AI68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AK68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AL68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AM68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AN68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AO68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AR68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.00019980653622</v>
+        <v>0.000199807</v>
       </c>
     </row>
     <row r="69">
@@ -9388,112 +9388,112 @@
         <v>0.8</v>
       </c>
       <c r="J69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="K69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="L69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="M69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="N69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="O69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="P69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="Q69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="R69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="S69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="T69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="U69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="V69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="W69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="X69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="Y69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AA69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AB69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AC69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AD69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AE69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AF69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AG69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AH69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AI69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AJ69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AK69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AL69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AM69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AN69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AO69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AP69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AQ69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AR69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
       <c r="AS69" t="n">
-        <v>8.2456949685e-05</v>
+        <v>8.25e-05</v>
       </c>
     </row>
     <row r="70">
@@ -9519,112 +9519,112 @@
         <v>0.95</v>
       </c>
       <c r="J70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="K70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="L70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="M70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="N70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="O70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="P70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="R70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="S70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="T70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="U70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="V70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="W70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="X70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AC70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AE70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AF70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AG70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AI70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AK70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AL70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AM70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AO70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AR70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.00094079925954</v>
+        <v>0.000940799</v>
       </c>
     </row>
     <row r="71">
@@ -9650,112 +9650,112 @@
         <v>0.8</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="R71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="S71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="T71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="U71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="V71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="X71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AC71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AE71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AG71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AH71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AI71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AK71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AL71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AM71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AN71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AO71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AP71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AR71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.0001002102850857</v>
+        <v>0.00010021</v>
       </c>
     </row>
     <row r="72">
@@ -9781,112 +9781,112 @@
         <v>0.8</v>
       </c>
       <c r="J72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="K72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="L72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="M72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="N72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="O72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="P72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="R72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="S72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="T72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="U72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="V72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="W72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="X72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AB72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AC72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AD72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AE72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AF72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AG72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AH72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AI72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AK72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AL72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AM72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AN72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AO72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AR72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.128685627e-05</v>
+        <v>1.13e-05</v>
       </c>
     </row>
     <row r="73">
@@ -9912,112 +9912,112 @@
         <v>0.8</v>
       </c>
       <c r="J73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="K73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="L73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="M73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="N73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="O73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="P73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="R73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="S73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="T73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="U73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="V73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="W73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="X73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AC73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AE73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AG73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AH73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AI73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AK73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AL73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AM73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AN73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AO73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AR73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.000100297140192</v>
+        <v>0.000100297</v>
       </c>
     </row>
     <row r="74">
@@ -10174,112 +10174,112 @@
         <v>0.1</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="L75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="M75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="N75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="O75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="P75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="R75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="S75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="T75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="U75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="W75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="X75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AE75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AG75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AH75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AI75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AK75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AL75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AM75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AN75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AO75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AR75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.5036561508</v>
+        <v>0.5036561510000001</v>
       </c>
     </row>
     <row r="76">
@@ -10305,112 +10305,112 @@
         <v>0.1</v>
       </c>
       <c r="J76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="K76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="L76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="M76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="N76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="O76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="P76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="R76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="S76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="T76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="U76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="V76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="W76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="X76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AC76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AE76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AF76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AG76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AH76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AI76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AK76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AL76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AM76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AO76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AR76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.94339363815</v>
+        <v>0.943393638</v>
       </c>
     </row>
     <row r="77">
@@ -10436,112 +10436,112 @@
         <v>0.1</v>
       </c>
       <c r="J77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="K77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="L77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="M77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="N77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="O77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="P77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="R77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="S77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="T77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="U77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="V77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="W77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="X77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AC77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AE77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AF77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AG77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AH77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AI77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AK77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AL77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AM77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AN77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AO77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AR77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.17679277035</v>
+        <v>0.17679277</v>
       </c>
     </row>
     <row r="78">
@@ -10567,112 +10567,112 @@
         <v>0.1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="K78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="L78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="M78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="N78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="O78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="P78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="R78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="S78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="T78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="U78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="V78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="W78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="X78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AE78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AG78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AH78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AI78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AJ78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AK78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AL78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AM78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AO78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AR78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.29945960667</v>
+        <v>0.299459607</v>
       </c>
     </row>
     <row r="79">
@@ -10698,112 +10698,112 @@
         <v>0.1</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="M79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="N79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="O79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="P79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="R79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="S79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="T79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="U79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="V79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="W79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="X79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AG79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AH79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AI79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AK79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AL79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AM79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AN79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AO79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AR79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.9633397494</v>
+        <v>0.963339749</v>
       </c>
     </row>
     <row r="80">
@@ -10829,112 +10829,112 @@
         <v>0.1</v>
       </c>
       <c r="J80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="K80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="L80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="M80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="N80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="O80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="P80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="R80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="S80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="T80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="U80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="V80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="W80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="X80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AC80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AD80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AE80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AF80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AH80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AI80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AJ80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AK80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AL80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AM80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AN80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AO80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AR80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.54933130752</v>
+        <v>0.549331308</v>
       </c>
     </row>
     <row r="81">
@@ -10960,112 +10960,112 @@
         <v>0.1</v>
       </c>
       <c r="J81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="K81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="L81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="M81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="N81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="O81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="P81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="R81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="S81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="T81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="U81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="V81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="W81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="X81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AG81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AH81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AI81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AJ81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AK81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AL81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AM81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AN81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AO81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AR81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.98512559865</v>
+        <v>0.985125599</v>
       </c>
     </row>
     <row r="82">
@@ -11091,112 +11091,112 @@
         <v>0.1</v>
       </c>
       <c r="J82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="K82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="L82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="M82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="N82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="O82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="P82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="R82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="S82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="T82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="U82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="V82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="W82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="X82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AK82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AL82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AM82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AN82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AO82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AR82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.91905562905</v>
+        <v>0.919055629</v>
       </c>
     </row>
     <row r="83">
@@ -11353,112 +11353,112 @@
         <v>0.1</v>
       </c>
       <c r="J84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="K84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="L84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="M84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="N84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="O84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="P84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="R84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="S84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="T84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="U84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="W84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="X84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AD84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AE84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AG84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AH84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AI84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AK84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AL84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AM84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AN84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AO84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AR84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.6358287738</v>
+        <v>0.635828774</v>
       </c>
     </row>
     <row r="85">
@@ -11484,112 +11484,112 @@
         <v>0.1</v>
       </c>
       <c r="J85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="K85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="L85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="M85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="N85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="O85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="P85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="R85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="S85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="T85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="U85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="V85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="W85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="X85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AD85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AE85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AF85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AG85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AH85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AI85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AK85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AL85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AM85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AN85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AO85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AR85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.21131292234</v>
+        <v>0.211312922</v>
       </c>
     </row>
     <row r="86">
@@ -11615,112 +11615,112 @@
         <v>0.1</v>
       </c>
       <c r="J86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="L86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="M86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="N86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="O86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="P86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="R86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="S86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="T86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="U86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="W86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="X86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="Z86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AA86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AB86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AC86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AF86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AH86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AI86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AJ86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AK86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AL86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AM86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AN86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AO86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AP86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AR86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.6804083502</v>
+        <v>0.68040835</v>
       </c>
     </row>
     <row r="87">
@@ -11877,112 +11877,112 @@
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="P88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="R88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="U88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="V88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="W88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="X88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="Y88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="Z88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AA88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AB88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AC88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AD88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AE88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AF88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AG88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AH88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AI88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AJ88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AK88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AL88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AM88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AN88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AO88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AP88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AR88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="89">
@@ -13973,112 +13973,112 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="K104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="M104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="O104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="P104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="R104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="S104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="T104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="U104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="V104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="W104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="X104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="Z104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AA104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AB104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AC104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AD104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AE104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AF104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AG104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AH104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AI104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AK104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AL104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AM104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AN104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AO104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AR104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.09615085515000001</v>
+        <v>0.09615085499999999</v>
       </c>
     </row>
     <row r="105">
@@ -17903,112 +17903,112 @@
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="K134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="L134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="M134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="N134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="O134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="P134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="R134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="S134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="T134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="U134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="V134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="W134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="X134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="Z134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AA134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AB134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AC134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AD134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AE134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AF134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AG134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AH134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AI134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AJ134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AK134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AL134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AM134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AN134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AO134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AR134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.25241831775</v>
+        <v>0.252418318</v>
       </c>
     </row>
     <row r="135">
@@ -19868,112 +19868,112 @@
         <v>0.5</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="P149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="R149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="S149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="T149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="U149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="V149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="W149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="X149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="Z149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AA149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AB149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AC149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AD149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AE149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AF149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AG149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AH149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AI149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AJ149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AK149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AL149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AM149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AN149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AO149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AR149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.05419407915</v>
+        <v>0.054194079</v>
       </c>
     </row>
     <row r="150">
@@ -19999,112 +19999,112 @@
         <v>0.76</v>
       </c>
       <c r="J150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="K150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="L150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="M150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="N150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="O150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="P150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="R150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="S150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="T150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="U150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="W150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="X150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="Z150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AA150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AB150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AC150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AD150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AE150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AF150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AG150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AH150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AI150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AJ150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AK150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AL150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AM150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AN150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AO150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AP150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AR150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.6126771908400001</v>
+        <v>0.612677191</v>
       </c>
     </row>
     <row r="151">
@@ -20392,112 +20392,112 @@
         <v>0.85</v>
       </c>
       <c r="J153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="K153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="M153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="O153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="P153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="R153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="S153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="T153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="U153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="V153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="W153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="X153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="Z153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AA153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AB153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AC153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AD153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AE153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AF153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AG153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AH153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AI153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AJ153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AK153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AL153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AM153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AN153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AO153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AR153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.08715759570999999</v>
+        <v>0.087157596</v>
       </c>
     </row>
     <row r="154">
@@ -20523,112 +20523,112 @@
         <v>0.53</v>
       </c>
       <c r="J154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="K154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="L154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="M154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="N154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="O154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="P154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="R154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="S154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="T154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="U154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="V154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="W154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="X154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="Z154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AA154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AB154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AC154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AD154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AE154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AF154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AG154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AH154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AI154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AJ154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AK154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AL154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AM154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AN154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AO154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AR154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.169382947491</v>
+        <v>0.169382947</v>
       </c>
     </row>
     <row r="155">
@@ -20916,112 +20916,112 @@
         <v>0.78</v>
       </c>
       <c r="J157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="K157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="L157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="M157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="N157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="O157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="P157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="R157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="S157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="T157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="U157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="V157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="W157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="X157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="Z157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AA157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AB157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AC157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AD157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AE157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AF157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AG157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AH157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AI157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AJ157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AK157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AL157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AM157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AN157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AO157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AR157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.090394025664</v>
+        <v>0.090394026</v>
       </c>
     </row>
     <row r="158">
@@ -21178,112 +21178,112 @@
         <v>0.83</v>
       </c>
       <c r="J159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="K159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="L159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="M159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="N159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="O159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="P159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="R159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="S159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="T159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="U159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="V159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="W159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="X159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="Z159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AA159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AB159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AC159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AD159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AE159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AF159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AG159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AH159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AI159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AJ159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AK159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AL159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AM159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AN159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AO159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AR159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.048970010268</v>
+        <v>0.04897001</v>
       </c>
     </row>
     <row r="160">
@@ -21571,112 +21571,112 @@
         <v>0.53</v>
       </c>
       <c r="J162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="K162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="L162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="M162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="N162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="O162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="P162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="R162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="S162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="T162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="U162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="V162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="W162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="X162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="Z162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AA162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AB162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AC162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AD162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AE162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AF162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AG162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AH162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AI162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AJ162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AK162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AL162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AM162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AN162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AO162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AR162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.253138316304</v>
+        <v>0.253138316</v>
       </c>
     </row>
     <row r="163">
@@ -21702,112 +21702,112 @@
         <v>0.83</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="K163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="M163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="N163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="O163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="P163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="R163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="S163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="T163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="U163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="V163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="W163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="X163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="Z163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AA163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AB163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AC163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AD163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AE163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AF163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AG163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AH163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AI163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AJ163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AK163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AL163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AM163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AN163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AO163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AP163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AR163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.05595930738</v>
+        <v>0.055959307</v>
       </c>
     </row>
     <row r="164">
@@ -21833,112 +21833,112 @@
         <v>0.71</v>
       </c>
       <c r="J164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="K164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="L164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="M164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="N164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="O164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="P164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="R164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="S164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="T164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="U164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="V164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="W164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="X164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="Z164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AA164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AB164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AC164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AD164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AE164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AF164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AG164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AH164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AI164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AJ164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AK164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AL164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AM164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AN164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AO164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AP164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AR164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.029526070896</v>
+        <v>0.029526071</v>
       </c>
     </row>
     <row r="165">
@@ -21964,112 +21964,112 @@
         <v>0.78</v>
       </c>
       <c r="J165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="K165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="L165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="M165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="N165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="O165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="P165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="R165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="S165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="T165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="U165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="V165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="W165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="X165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="Z165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AA165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AB165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AC165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AD165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AE165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AF165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AG165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AH165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AI165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AJ165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AK165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AL165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AM165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AN165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AO165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AR165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.093008025312</v>
+        <v>0.09300802499999999</v>
       </c>
     </row>
     <row r="166">
@@ -22095,112 +22095,112 @@
         <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="K166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="L166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="M166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="N166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="O166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="P166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="Q166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="R166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="S166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="T166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="U166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="V166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="W166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="X166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="Y166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="Z166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AA166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AB166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AC166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AD166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AE166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AF166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AG166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AH166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AI166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AJ166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AK166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AL166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AM166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AN166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AO166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AP166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AQ166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AR166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
       <c r="AS166" t="n">
-        <v>367.335268905</v>
+        <v>367.3352689</v>
       </c>
     </row>
     <row r="167">
@@ -22881,112 +22881,112 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="K172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="L172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="M172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="N172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="O172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="P172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="R172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="S172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="T172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="U172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="V172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="W172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="X172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="Z172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AA172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AB172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AC172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AD172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AE172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AF172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AG172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AH172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AI172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AJ172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AK172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AL172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AM172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AN172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AO172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AP172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AR172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.000425811644</v>
+        <v>0.000425812</v>
       </c>
     </row>
     <row r="173">
@@ -23012,112 +23012,112 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="K173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="L173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="M173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="N173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="O173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="P173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="R173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="S173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="T173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="U173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="V173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="W173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="X173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="Z173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AA173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AB173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AC173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AD173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AE173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AF173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AG173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AH173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AI173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AJ173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AK173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AL173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AM173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AN173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AO173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AP173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AR173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.000360322273</v>
+        <v>0.000360322</v>
       </c>
     </row>
     <row r="174">
@@ -23536,112 +23536,112 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="P177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="R177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="S177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="T177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="U177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="V177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="X177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="Z177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AA177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AB177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AC177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AD177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AE177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AF177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AG177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AH177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AI177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AJ177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AK177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AL177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AM177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AN177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AO177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AR177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.0007838829125</v>
+        <v>0.000783883</v>
       </c>
     </row>
     <row r="178">
@@ -23667,112 +23667,112 @@
         <v>0.042</v>
       </c>
       <c r="J178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="K178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="L178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="M178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="N178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="O178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="P178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="R178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="S178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="T178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="U178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="V178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="W178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="X178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="Z178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AA178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AB178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AC178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AD178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AE178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AF178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AG178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AH178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AI178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AJ178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AK178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AL178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AM178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AN178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AO178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AR178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.006928044528</v>
+        <v>0.006928045</v>
       </c>
     </row>
     <row r="179">
@@ -23798,112 +23798,112 @@
         <v>0.042</v>
       </c>
       <c r="J179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="K179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="L179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="M179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="N179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="O179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="P179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="R179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="S179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="T179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="U179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="V179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="W179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="X179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="Z179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AA179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AB179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AC179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AD179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AE179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AF179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AG179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AH179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AI179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AJ179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AK179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AL179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AM179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AN179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AO179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AP179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AR179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.00134932122</v>
+        <v>0.001349321</v>
       </c>
     </row>
     <row r="180">
@@ -23929,112 +23929,112 @@
         <v>0.2</v>
       </c>
       <c r="J180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="K180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="L180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="M180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="N180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="O180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="P180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="R180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="S180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="T180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="U180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="W180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="X180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="Z180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AA180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AB180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AC180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AD180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AE180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AF180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AG180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AH180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AI180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AJ180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AK180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AL180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AM180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AN180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AO180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AP180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AR180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.5471895635</v>
+        <v>0.547189564</v>
       </c>
     </row>
     <row r="181">
@@ -26942,112 +26942,112 @@
         <v>0.117</v>
       </c>
       <c r="J203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="K203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="L203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="M203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="N203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="O203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="P203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="R203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="S203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="T203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="U203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="W203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="X203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="Y203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="Z203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AA203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AB203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AC203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AD203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AE203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AF203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AG203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AH203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AI203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AJ203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AK203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AL203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AM203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AN203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AO203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AR203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.5705512302</v>
+        <v>0.57055123</v>
       </c>
     </row>
     <row r="204">
@@ -27073,112 +27073,112 @@
         <v>0.117</v>
       </c>
       <c r="J204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="K204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="M204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="O204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="P204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="R204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="S204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="T204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="U204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="V204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="W204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="X204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="Y204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="Z204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AA204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AB204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AC204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AD204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AE204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AF204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AG204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AH204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AI204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AJ204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AK204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AL204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AM204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AN204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AO204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AP204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AR204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
       <c r="AS204" t="n">
-        <v>0.07962453009999999</v>
+        <v>0.07962453</v>
       </c>
     </row>
     <row r="205">
@@ -27597,112 +27597,112 @@
         <v>0.8</v>
       </c>
       <c r="J208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="K208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="L208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="M208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="N208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="O208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="P208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="R208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="S208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="T208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="U208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="V208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="W208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="X208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="Y208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="Z208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AA208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AB208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AC208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AD208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AE208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AF208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AG208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AH208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AI208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AJ208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AK208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AL208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AM208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AN208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AO208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AP208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AR208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
       <c r="AS208" t="n">
-        <v>0.68513488375</v>
+        <v>0.685134884</v>
       </c>
     </row>
     <row r="209">
@@ -28907,112 +28907,112 @@
         <v>0.14</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="K218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="M218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="O218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="P218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="R218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="S218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="T218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="U218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="V218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="X218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="Y218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="Z218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AA218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AB218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AC218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AD218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AE218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AF218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AG218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AH218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AI218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AJ218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AK218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AL218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AM218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AN218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AO218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AP218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AQ218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AR218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
       <c r="AS218" t="n">
-        <v>0.0600041198</v>
+        <v>0.06000412</v>
       </c>
     </row>
     <row r="219">
@@ -29431,112 +29431,112 @@
         <v>0.8</v>
       </c>
       <c r="J222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="K222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="L222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="M222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="N222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="O222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="P222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="R222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="S222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="T222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="U222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="W222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="X222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="Z222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AA222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AB222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AC222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AD222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AE222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AF222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AG222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AH222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AI222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AJ222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AK222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AL222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AM222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AN222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AO222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AP222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AR222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.5023407815000001</v>
+        <v>0.502340782</v>
       </c>
     </row>
     <row r="223">
